--- a/sessions/data/Part_II/ocr/pron_extracted/findings.xlsx
+++ b/sessions/data/Part_II/ocr/pron_extracted/findings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Finding</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Findings</t>
         </is>
       </c>
@@ -453,9 +458,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8 de julio de 2022</t>
-        </is>
-      </c>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -463,7 +469,8 @@
           <t>Sobre el proceso hacia la JNJ</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Lima, 19 de octubre de 2023</t>
         </is>
@@ -477,9 +484,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7 de diciembre 2022</t>
-        </is>
-      </c>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -487,7 +495,8 @@
           <t>Sobre la represion durante las protestas</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Lima, 11 de enero de 2023</t>
         </is>
@@ -499,7 +508,8 @@
           <t>Sobre las medidas de criminalizacion</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Lima, 07 de febrero de 2023</t>
         </is>
